--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf2-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf2-Bmpr2.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.70766766666667</v>
+        <v>29.52617166666667</v>
       </c>
       <c r="N2">
-        <v>122.123003</v>
+        <v>88.57851500000001</v>
       </c>
       <c r="O2">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="P2">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="Q2">
-        <v>73.5831665050441</v>
+        <v>53.37149806260945</v>
       </c>
       <c r="R2">
-        <v>662.2484985453971</v>
+        <v>480.3434825634851</v>
       </c>
       <c r="S2">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="T2">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>119.145069</v>
       </c>
       <c r="O3">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="P3">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="Q3">
         <v>71.788862336459</v>
@@ -632,10 +632,10 @@
         <v>646.0997610281311</v>
       </c>
       <c r="S3">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="T3">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.37224266666666</v>
+        <v>22.50081433333333</v>
       </c>
       <c r="N4">
-        <v>82.11672799999999</v>
+        <v>67.502443</v>
       </c>
       <c r="O4">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676477</v>
       </c>
       <c r="P4">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676476</v>
       </c>
       <c r="Q4">
-        <v>49.47805672018578</v>
+        <v>40.67246448866189</v>
       </c>
       <c r="R4">
-        <v>445.302510481672</v>
+        <v>366.052180397957</v>
       </c>
       <c r="S4">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676477</v>
       </c>
       <c r="T4">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676476</v>
       </c>
     </row>
   </sheetData>
